--- a/orcamentos/Arranjo Decorações_titulo qualquer.xlsx
+++ b/orcamentos/Arranjo Decorações_titulo qualquer.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841B3258-F4B6-41A3-B213-6A40FE82DA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA78849C-49F1-4B85-8D6A-CB32D811BB5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="geral" sheetId="1" r:id="rId1"/>
     <sheet name="resultado" sheetId="5" r:id="rId2"/>
     <sheet name="cenarios" sheetId="4" r:id="rId3"/>
+    <sheet name="Centro" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>id</t>
   </si>
@@ -87,6 +88,9 @@
   </si>
   <si>
     <t>Contato 1</t>
+  </si>
+  <si>
+    <t>Centro</t>
   </si>
 </sst>
 </file>
@@ -421,7 +425,7 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -572,7 +576,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Planilha4"/>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
@@ -592,7 +596,27 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C58D9B43-BB17-459D-A733-BDC170585618}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>